--- a/IPL/Mumbai Indians/Ambati Rayudu.xlsx
+++ b/IPL/Mumbai Indians/Ambati Rayudu.xlsx
@@ -445,28 +445,31 @@
         <v>Ambati Rayudu</v>
       </c>
       <c r="C2" t="str">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D2" t="str">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E2" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="str">
-        <v>114.28</v>
+        <v>109.09</v>
       </c>
       <c r="H2" t="str">
         <v>Chennai Super Kings</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Chennai</v>
       </c>
       <c r="J2" t="str">
-        <v>April 21 2022</v>
+        <v>May 06 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -477,31 +480,31 @@
         <v>Ambati Rayudu</v>
       </c>
       <c r="C3" t="str">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D3" t="str">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E3" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>114.28</v>
+        <v>125.00</v>
       </c>
       <c r="H3" t="str">
         <v>Chennai Super Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J3" t="str">
-        <v>April 21 2022</v>
+        <v>April 08 2023</v>
       </c>
       <c r="K3" t="str">
-        <v>Super Kings won by 3 wickets (with 0 balls remaining)</v>
+        <v/>
       </c>
     </row>
   </sheetData>
